--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H2">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I2">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J2">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>82.86041863112445</v>
+        <v>62.4923470550811</v>
       </c>
       <c r="R2">
-        <v>745.7437676801201</v>
+        <v>562.4311234957298</v>
       </c>
       <c r="S2">
-        <v>0.2810939251956699</v>
+        <v>0.2320504734925103</v>
       </c>
       <c r="T2">
-        <v>0.2810939251956699</v>
+        <v>0.2320504734925103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H3">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I3">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J3">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>34.52596450030933</v>
+        <v>28.16261701239467</v>
       </c>
       <c r="R3">
-        <v>310.733680502784</v>
+        <v>253.463553111552</v>
       </c>
       <c r="S3">
-        <v>0.1171251490505124</v>
+        <v>0.1045751827300436</v>
       </c>
       <c r="T3">
-        <v>0.1171251490505124</v>
+        <v>0.1045751827300436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H4">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I4">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J4">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>2.874134349670222</v>
+        <v>5.812259595131334</v>
       </c>
       <c r="R4">
-        <v>25.867209147032</v>
+        <v>52.310336356182</v>
       </c>
       <c r="S4">
-        <v>0.009750152355434019</v>
+        <v>0.02158244416588846</v>
       </c>
       <c r="T4">
-        <v>0.009750152355434019</v>
+        <v>0.02158244416588846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H5">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I5">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J5">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>3.330393374048889</v>
+        <v>3.772150570628222</v>
       </c>
       <c r="R5">
-        <v>29.97354036644</v>
+        <v>33.949355135654</v>
       </c>
       <c r="S5">
-        <v>0.01129795578422784</v>
+        <v>0.01400698433086217</v>
       </c>
       <c r="T5">
-        <v>0.01129795578422785</v>
+        <v>0.01400698433086217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H6">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I6">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J6">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>2.693404899504</v>
+        <v>2.857539137343556</v>
       </c>
       <c r="R6">
-        <v>24.240644095536</v>
+        <v>25.717852236092</v>
       </c>
       <c r="S6">
-        <v>0.00913704960523145</v>
+        <v>0.01061079221843752</v>
       </c>
       <c r="T6">
-        <v>0.00913704960523145</v>
+        <v>0.01061079221843752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>46.705157</v>
       </c>
       <c r="I7">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J7">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>102.9098056187772</v>
+        <v>95.15010704555942</v>
       </c>
       <c r="R7">
-        <v>926.188250568995</v>
+        <v>856.3509634100349</v>
       </c>
       <c r="S7">
-        <v>0.3491090400023598</v>
+        <v>0.3533173009700532</v>
       </c>
       <c r="T7">
-        <v>0.3491090400023598</v>
+        <v>0.3533173009700531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>46.705157</v>
       </c>
       <c r="I8">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J8">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>42.88006691524267</v>
@@ -948,10 +948,10 @@
         <v>385.920602237184</v>
       </c>
       <c r="S8">
-        <v>0.145465428741281</v>
+        <v>0.1592249339315469</v>
       </c>
       <c r="T8">
-        <v>0.145465428741281</v>
+        <v>0.1592249339315469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>46.705157</v>
       </c>
       <c r="I9">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J9">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>3.569576549734111</v>
+        <v>8.849677579974333</v>
       </c>
       <c r="R9">
-        <v>32.126188947607</v>
+        <v>79.64709821976899</v>
       </c>
       <c r="S9">
-        <v>0.01210935571202003</v>
+        <v>0.03286117371906463</v>
       </c>
       <c r="T9">
-        <v>0.01210935571202003</v>
+        <v>0.03286117371906462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>46.705157</v>
       </c>
       <c r="I10">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J10">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>4.136234651229444</v>
+        <v>5.743431756065889</v>
       </c>
       <c r="R10">
-        <v>37.226111861065</v>
+        <v>51.690885804593</v>
       </c>
       <c r="S10">
-        <v>0.01403167462646272</v>
+        <v>0.02132686834905244</v>
       </c>
       <c r="T10">
-        <v>0.01403167462646272</v>
+        <v>0.02132686834905244</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>46.705157</v>
       </c>
       <c r="I11">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J11">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>3.345116754654</v>
+        <v>4.350855226568222</v>
       </c>
       <c r="R11">
-        <v>30.106050791886</v>
+        <v>39.157697039114</v>
       </c>
       <c r="S11">
-        <v>0.01134790306804335</v>
+        <v>0.01615586648606166</v>
       </c>
       <c r="T11">
-        <v>0.01134790306804336</v>
+        <v>0.01615586648606166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H12">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I12">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J12">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>0.2846827536744445</v>
+        <v>5.165976431504999</v>
       </c>
       <c r="R12">
-        <v>2.56214478307</v>
+        <v>46.49378788354498</v>
       </c>
       <c r="S12">
-        <v>0.0009657517302936139</v>
+        <v>0.01918262528890591</v>
       </c>
       <c r="T12">
-        <v>0.0009657517302936138</v>
+        <v>0.01918262528890591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H13">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I13">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J13">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.1186205284693333</v>
+        <v>2.328083718912</v>
       </c>
       <c r="R13">
-        <v>1.067584756224</v>
+        <v>20.952753470208</v>
       </c>
       <c r="S13">
-        <v>0.0004024057626919226</v>
+        <v>0.008644785397923517</v>
       </c>
       <c r="T13">
-        <v>0.0004024057626919226</v>
+        <v>0.008644785397923516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H14">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I14">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J14">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.009874636100222224</v>
+        <v>0.480474770067</v>
       </c>
       <c r="R14">
-        <v>0.088871724902</v>
+        <v>4.324272930603</v>
       </c>
       <c r="S14">
-        <v>3.349850588671423E-05</v>
+        <v>0.001784128827758391</v>
       </c>
       <c r="T14">
-        <v>3.349850588671423E-05</v>
+        <v>0.00178412882775839</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H15">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I15">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J15">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.01144220089888889</v>
+        <v>0.311827637499</v>
       </c>
       <c r="R15">
-        <v>0.10297980809</v>
+        <v>2.806448737490999</v>
       </c>
       <c r="S15">
-        <v>3.88162794333019E-05</v>
+        <v>0.001157897796123988</v>
       </c>
       <c r="T15">
-        <v>3.88162794333019E-05</v>
+        <v>0.001157897796123988</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H16">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I16">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J16">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.009253705644000002</v>
+        <v>0.236220601902</v>
       </c>
       <c r="R16">
-        <v>0.08328335079600001</v>
+        <v>2.125985417118</v>
       </c>
       <c r="S16">
-        <v>3.139207458819457E-05</v>
+        <v>0.0008771490446939134</v>
       </c>
       <c r="T16">
-        <v>3.139207458819456E-05</v>
+        <v>0.0008771490446939131</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H17">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I17">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J17">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>5.482790384655556</v>
+        <v>0.4311800055822222</v>
       </c>
       <c r="R17">
-        <v>49.34511346190001</v>
+        <v>3.880620050239999</v>
       </c>
       <c r="S17">
-        <v>0.01859970171172901</v>
+        <v>0.001601084439470139</v>
       </c>
       <c r="T17">
-        <v>0.01859970171172901</v>
+        <v>0.001601084439470138</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H18">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I18">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J18">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>2.284548271786667</v>
+        <v>0.1943143109973333</v>
       </c>
       <c r="R18">
-        <v>20.56093444608</v>
+        <v>1.748828798976</v>
       </c>
       <c r="S18">
-        <v>0.007750053060609111</v>
+        <v>0.0007215399964664294</v>
       </c>
       <c r="T18">
-        <v>0.007750053060609114</v>
+        <v>0.0007215399964664294</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H19">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I19">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J19">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>0.1901785730377778</v>
+        <v>0.04010299249066667</v>
       </c>
       <c r="R19">
-        <v>1.71160715734</v>
+        <v>0.360926932416</v>
       </c>
       <c r="S19">
-        <v>0.0006451577540451887</v>
+        <v>0.0001489129282938197</v>
       </c>
       <c r="T19">
-        <v>0.0006451577540451887</v>
+        <v>0.0001489129282938197</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H20">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I20">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J20">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>0.2203687728111111</v>
+        <v>0.02602680137244445</v>
       </c>
       <c r="R20">
-        <v>1.9833189553</v>
+        <v>0.234241212352</v>
       </c>
       <c r="S20">
-        <v>0.0007475743468759185</v>
+        <v>9.664433913240568E-05</v>
       </c>
       <c r="T20">
-        <v>0.0007475743468759186</v>
+        <v>9.664433913240568E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,371 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H21">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I21">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J21">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>0.17821988748</v>
+        <v>0.01971623405511111</v>
       </c>
       <c r="R21">
-        <v>1.60397898732</v>
+        <v>0.177446106496</v>
       </c>
       <c r="S21">
-        <v>0.0006045893630190559</v>
+        <v>7.321154771071596E-05</v>
       </c>
       <c r="T21">
-        <v>0.0006045893630190559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.852656</v>
-      </c>
-      <c r="I22">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J22">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>6.610178333333334</v>
-      </c>
-      <c r="N22">
-        <v>19.830535</v>
-      </c>
-      <c r="O22">
-        <v>0.6561418030098394</v>
-      </c>
-      <c r="P22">
-        <v>0.6561418030098395</v>
-      </c>
-      <c r="Q22">
-        <v>1.878736072328889</v>
-      </c>
-      <c r="R22">
-        <v>16.90862465096</v>
-      </c>
-      <c r="S22">
-        <v>0.006373384369787089</v>
-      </c>
-      <c r="T22">
-        <v>0.006373384369787089</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.852656</v>
-      </c>
-      <c r="I23">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J23">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.754304</v>
-      </c>
-      <c r="N23">
-        <v>8.262912</v>
-      </c>
-      <c r="O23">
-        <v>0.2733986742057961</v>
-      </c>
-      <c r="P23">
-        <v>0.2733986742057962</v>
-      </c>
-      <c r="Q23">
-        <v>0.7828246104746667</v>
-      </c>
-      <c r="R23">
-        <v>7.045421494271999</v>
-      </c>
-      <c r="S23">
-        <v>0.002655637590701722</v>
-      </c>
-      <c r="T23">
-        <v>0.002655637590701723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.852656</v>
-      </c>
-      <c r="I24">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J24">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.2292836666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.687851</v>
-      </c>
-      <c r="O24">
-        <v>0.02275923445041301</v>
-      </c>
-      <c r="P24">
-        <v>0.02275923445041302</v>
-      </c>
-      <c r="Q24">
-        <v>0.06516669802844445</v>
-      </c>
-      <c r="R24">
-        <v>0.5865002822559999</v>
-      </c>
-      <c r="S24">
-        <v>0.00022107012302706</v>
-      </c>
-      <c r="T24">
-        <v>0.00022107012302706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.852656</v>
-      </c>
-      <c r="I25">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J25">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.2656816666666666</v>
-      </c>
-      <c r="N25">
-        <v>0.797045</v>
-      </c>
-      <c r="O25">
-        <v>0.02637218528799033</v>
-      </c>
-      <c r="P25">
-        <v>0.02637218528799034</v>
-      </c>
-      <c r="Q25">
-        <v>0.07551168905777778</v>
-      </c>
-      <c r="R25">
-        <v>0.6796052015199999</v>
-      </c>
-      <c r="S25">
-        <v>0.0002561642509905532</v>
-      </c>
-      <c r="T25">
-        <v>0.0002561642509905532</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.852656</v>
-      </c>
-      <c r="I26">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J26">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.214866</v>
-      </c>
-      <c r="N26">
-        <v>0.644598</v>
-      </c>
-      <c r="O26">
-        <v>0.02132810304596101</v>
-      </c>
-      <c r="P26">
-        <v>0.02132810304596101</v>
-      </c>
-      <c r="Q26">
-        <v>0.061068928032</v>
-      </c>
-      <c r="R26">
-        <v>0.549620352288</v>
-      </c>
-      <c r="S26">
-        <v>0.0002071689350789587</v>
-      </c>
-      <c r="T26">
-        <v>0.0002071689350789587</v>
+        <v>7.321154771071596E-05</v>
       </c>
     </row>
   </sheetData>
